--- a/demo.xlsx
+++ b/demo.xlsx
@@ -14,34 +14,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Nepal Oil Corporation</t>
   </si>
   <si>
-    <t>Merged Range</t>
-  </si>
-  <si>
-    <t>1st</t>
-  </si>
-  <si>
-    <t>2nd</t>
-  </si>
-  <si>
-    <t>3rd</t>
-  </si>
-  <si>
-    <t>4th</t>
-  </si>
-  <si>
-    <t>5th</t>
+    <t>Province -1    Customers</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Middle Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Customer Kind</t>
+  </si>
+  <si>
+    <t>Kyc Status</t>
+  </si>
+  <si>
+    <t>Rishav</t>
+  </si>
+  <si>
+    <t>Paudel</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>residential</t>
+  </si>
+  <si>
+    <t>submitted</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,14 +73,6 @@
     <font>
       <b/>
       <sz val="20"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -115,18 +128,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -423,71 +433,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="F2:J6"/>
+  <dimension ref="B2:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="4" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="6:10">
-      <c r="F2" s="1" t="s">
+    <row r="2" spans="2:9">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
     </row>
-    <row r="4" spans="6:10">
-      <c r="F4" s="2" t="s">
+    <row r="4" spans="2:9">
+      <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="6:10">
-      <c r="F5" s="3" t="s">
+    <row r="5" spans="2:9">
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="6:10">
-      <c r="F6" s="4">
-        <v>5</v>
-      </c>
-      <c r="G6" s="4">
-        <v>6</v>
-      </c>
-      <c r="H6" s="4">
-        <v>7</v>
-      </c>
-      <c r="I6" s="4">
-        <v>8</v>
-      </c>
-      <c r="J6" s="4">
+    <row r="6" spans="2:9">
+      <c r="C6" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3">
+        <v>986511909</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3">
+        <v>986511909</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="F4:J4"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="E4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
